--- a/biology/Botanique/Pulsatille/Pulsatille.xlsx
+++ b/biology/Botanique/Pulsatille/Pulsatille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulsatilla
 Le genre Pulsatilla, les Pulsatilles, regroupe environ 33 espèces de plantes vivaces herbacées originaires des prairies d'Amérique du Nord, d'Europe et d'Asie. Plusieurs espèces sont utilisées comme plantes ornementales en raison de leurs feuilles finement découpées, de leurs fleurs solitaires en forme de clochette et de leurs fruits plumeux. Le périanthe est constitué de six tépales.
@@ -515,7 +527,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pulsatilla ajanensis Regel et Til.
 Pulsatilla albana (Stev.) Bercht. &amp; J.Presl
